--- a/pipelines/Series USDCOP Final.xlsx
+++ b/pipelines/Series USDCOP Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saule\Desktop\Pipeline\UltimoHadidMayo\SP500_INDEX_Analisis\pipelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E610A-D87E-4441-A4DF-F927228D3B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917D2BB5-24C7-4DB2-AFE8-C96B07A0F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{880B677C-0A91-426E-83FE-AC046FFFB516}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{880B677C-0A91-426E-83FE-AC046FFFB516}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A538FDFE-44FD-4E80-9C67-7F40DB49170C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1578,6 +1578,7 @@
     <hyperlink ref="G49" r:id="rId36" xr:uid="{D4D3E6AC-6E83-4F62-9AF7-B0551C868480}"/>
     <hyperlink ref="G50" r:id="rId37" location="/informacionSerie/4160/Deuda%20externa%20%28p%C3%BAblica%20y%20privada%29" xr:uid="{F6ECCEE7-D81B-4988-AD43-6F6283535422}"/>
     <hyperlink ref="I34" r:id="rId38" xr:uid="{09C0B6F9-BAB5-4768-AB2A-01FAEDB4EB7B}"/>
+    <hyperlink ref="G10" r:id="rId39" xr:uid="{1383ADC3-702D-4B15-8955-5C5D09455FB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1587,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C371B1-20D0-4CC2-ADB7-9A7A4B340D12}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
